--- a/Assignment1-guess-number/Iteration4/document/defect_log.xlsx
+++ b/Assignment1-guess-number/Iteration4/document/defect_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukebeta/OneDrive - Ara Institute of Canterbury/BCPR280/Assignment1-guess-number/Iteration3/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukebeta/OneDrive - Ara Institute of Canterbury/BCPR280/Assignment1-guess-number/Iteration4/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{8B0F8C2A-4FB5-4340-A86C-82FC343803F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CEB43886-4DFF-3941-9C77-12B24CEF41B8}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{8B0F8C2A-4FB5-4340-A86C-82FC343803F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E8108A32-5296-8942-B77C-7FF7349C2852}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -610,9 +610,6 @@
     <t>3min</t>
   </si>
   <si>
-    <t>5min</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -622,37 +619,37 @@
     <t>2min</t>
   </si>
   <si>
-    <t>adjust requirement: more than 40 adjust to "more than 40 or equal to 40"</t>
-  </si>
-  <si>
     <t>Amitrajit Sarkar</t>
   </si>
   <si>
-    <t>Forgot handle "correct" branch: set Start button text and output computer win message.</t>
-  </si>
-  <si>
-    <t>add this. to currentGame</t>
-  </si>
-  <si>
-    <t>Forgot add this. prefix to data variable: currentGame</t>
-  </si>
-  <si>
-    <t>complain message with wrong information: I should use guess attribute but used result</t>
-  </si>
-  <si>
-    <t>change the attribute name</t>
-  </si>
-  <si>
-    <t>when computer guess 2, the guess message will disappear</t>
-  </si>
-  <si>
-    <t>modify the v-if condition</t>
-  </si>
-  <si>
-    <t>When computer find mankind lying, the game should end but it didn't</t>
-  </si>
-  <si>
-    <t>end the game</t>
+    <t>refineCandidateList result is wrong</t>
+  </si>
+  <si>
+    <t>fix the code logic bug</t>
+  </si>
+  <si>
+    <t>answered correct, but it says "mankind lied"</t>
+  </si>
+  <si>
+    <t>modify controller</t>
+  </si>
+  <si>
+    <t>judge button disappeared duringcomputer's guess process</t>
+  </si>
+  <si>
+    <t>fix logic bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mankind not  lie but it says mankind lie</t>
+  </si>
+  <si>
+    <t>fix  mankind lie judge logic code</t>
+  </si>
+  <si>
+    <t>When computer find the number, the game shouldn't display the buttons</t>
+  </si>
+  <si>
+    <t>hide the buttons when computer find the number</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1323,7 +1320,7 @@
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1353,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1382,61 +1379,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="18">
-        <v>43561</v>
+        <v>43563</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16">
       <c r="A8" s="18">
-        <v>43555</v>
+        <v>43563</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16">
       <c r="A9" s="18">
-        <v>43555</v>
+        <v>43563</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1445,24 +1442,24 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16">
       <c r="A10" s="18">
-        <v>43555</v>
+        <v>43563</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1471,24 +1468,24 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16">
       <c r="A11" s="18">
-        <v>43555</v>
+        <v>43563</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1497,19 +1494,19 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
